--- a/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 8,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 13,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 8,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 18,52</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 13,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 9,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 13,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 19,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 15,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 23,21</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 25,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,21; 16,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; 18,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; 45,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,24; 32,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 45,83</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 10,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 13,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 14,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 10,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 22,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,84</t>
+          <t>-2,83; 9,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,42</t>
+          <t>-2,55; 7,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 13,99</t>
+          <t>0,37; 13,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 10,92</t>
+          <t>-3,14; 11,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,81</t>
+          <t>-2,84; 9,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 18,52</t>
+          <t>0,52; 17,85</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 13,3</t>
+          <t>-1,93; 12,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,97</t>
+          <t>-3,2; 9,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 13,26</t>
+          <t>0,06; 13,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 19,41</t>
+          <t>-2,5; 19,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 15,37</t>
+          <t>-4,33; 14,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 23,21</t>
+          <t>0,06; 21,99</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 25,22</t>
+          <t>-5,34; 25,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 16,01</t>
+          <t>-17,22; 16,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 18,54</t>
+          <t>-8,66; 18,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 45,99</t>
+          <t>-7,09; 46,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 32,5</t>
+          <t>-24,46; 32,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 45,83</t>
+          <t>-15,17; 43,12</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,92</t>
+          <t>1,34; 11,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 7,69</t>
+          <t>-0,8; 7,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 13,88</t>
+          <t>4,18; 13,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,69</t>
+          <t>1,64; 14,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,38</t>
+          <t>-1,02; 10,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 22,22</t>
+          <t>6,17; 21,35</t>
         </is>
       </c>
     </row>
